--- a/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-docker/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0280DE-66B1-7947-AD4D-EB85445E3E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA6DAF-F941-3343-8352-924E2399D564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,13 +909,13 @@
     <t>caseworker-befta_jurisdiction_3-solicitor</t>
   </si>
   <si>
-    <t>befta_caseworker3@beftajurisdiction3.gmail.com</t>
-  </si>
-  <si>
-    <t>befta_citizen3@jurisdiction3.gmail.com</t>
-  </si>
-  <si>
-    <t>befta_solicitor3@legalcompany.gmail.com</t>
+    <t>befta_caseworker_3@gmail.com</t>
+  </si>
+  <si>
+    <t>befta_citizen_3@gmail.com</t>
+  </si>
+  <si>
+    <t>befta_solicitor_3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3916,7 +3916,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4025,11 +4025,6 @@
       <c r="F7" s="24"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{8D13FBB1-555B-6449-9CC2-185A699AEE75}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{5C3BAD99-6457-F646-BB40-13F6B6CDDC40}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-docker/bin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA6DAF-F941-3343-8352-924E2399D564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C021EC-3663-184F-A368-ABEBDD880983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,13 +909,13 @@
     <t>caseworker-befta_jurisdiction_3-solicitor</t>
   </si>
   <si>
-    <t>befta_caseworker_3@gmail.com</t>
-  </si>
-  <si>
-    <t>befta_citizen_3@gmail.com</t>
-  </si>
-  <si>
-    <t>befta_solicitor_3@gmail.com</t>
+    <t>befta.caseworker.3@gmail.com</t>
+  </si>
+  <si>
+    <t>befta.citizen.3@gmail.com</t>
+  </si>
+  <si>
+    <t>befta.solicitor.3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3916,7 +3916,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4025,6 +4025,11 @@
       <c r="F7" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{8B458D71-CA08-BD41-84CD-1BD26271ED40}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{35D2E831-5B00-3B4D-829F-E84BC2F6FD93}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00320A1E-B713-6149-8743-059884AB8FE2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C021EC-3663-184F-A368-ABEBDD880983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8132F8-8079-1748-9F48-A8FDB055F640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="5600" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">AuthorisationCaseEvent!$A$1:$F$66</definedName>
+  </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="330">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -916,6 +919,141 @@
   </si>
   <si>
     <t>befta.solicitor.3@gmail.com</t>
+  </si>
+  <si>
+    <t>EVENT_CRUD</t>
+  </si>
+  <si>
+    <t>EVENT_CRU</t>
+  </si>
+  <si>
+    <t>EVENT_CRD</t>
+  </si>
+  <si>
+    <t>EVENT_CUD</t>
+  </si>
+  <si>
+    <t>EVENT_RUD</t>
+  </si>
+  <si>
+    <t>EVENT_CU</t>
+  </si>
+  <si>
+    <t>EVENT_CR</t>
+  </si>
+  <si>
+    <t>EVENT_CD</t>
+  </si>
+  <si>
+    <t>EVENT_RU</t>
+  </si>
+  <si>
+    <t>EVENT_RD</t>
+  </si>
+  <si>
+    <t>EVENT_UD</t>
+  </si>
+  <si>
+    <t>EVENT_C</t>
+  </si>
+  <si>
+    <t>EVENT_R</t>
+  </si>
+  <si>
+    <t>EVENT_U</t>
+  </si>
+  <si>
+    <t>EVENT_D</t>
+  </si>
+  <si>
+    <t>EVENT_NONE</t>
+  </si>
+  <si>
+    <t>CRUD Privilege</t>
+  </si>
+  <si>
+    <t>CRD Privilege</t>
+  </si>
+  <si>
+    <t>CRU Privilege</t>
+  </si>
+  <si>
+    <t>CUD Privilege</t>
+  </si>
+  <si>
+    <t>RUD Privilege</t>
+  </si>
+  <si>
+    <t>CU Privilege</t>
+  </si>
+  <si>
+    <t>CR Privilege</t>
+  </si>
+  <si>
+    <t>CD Privilege</t>
+  </si>
+  <si>
+    <t>RU Privilege</t>
+  </si>
+  <si>
+    <t>RD Privilege</t>
+  </si>
+  <si>
+    <t>UD Privilege</t>
+  </si>
+  <si>
+    <t>C Privilege</t>
+  </si>
+  <si>
+    <t>R Privilege</t>
+  </si>
+  <si>
+    <t>U Privilege</t>
+  </si>
+  <si>
+    <t>D Privilege</t>
+  </si>
+  <si>
+    <t>No Privilege</t>
+  </si>
+  <si>
+    <t>CRD</t>
+  </si>
+  <si>
+    <t>CUD</t>
+  </si>
+  <si>
+    <t>RUD</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>UD</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -3915,7 +4053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -4044,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4163,7 +4301,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4404,10 +4542,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4416,7 +4554,7 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4578,16 +4716,16 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>188</v>
+        <v>274</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>123</v>
+        <v>280</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4595,16 +4733,16 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>190</v>
+        <v>274</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>123</v>
+        <v>280</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4612,15 +4750,15 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>192</v>
+        <v>274</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4629,16 +4767,16 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>194</v>
+        <v>274</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>123</v>
+        <v>280</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4646,16 +4784,16 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>196</v>
+        <v>274</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>123</v>
+        <v>280</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4663,127 +4801,915 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D25" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E30" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F30" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
+    <row r="31" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D46" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F46" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D47" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E47" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F47" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D48" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F48" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D49" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E49" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F49" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D50" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E50" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F50" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="71">
-        <v>42736</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D51" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E51" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F51" s="24" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="71"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="14"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F66" xr:uid="{01C3DDBD-C69A-7340-BD3B-6233921EA065}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4798,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5728,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8519,10 +9445,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8881,27 +9807,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>42736</v>
       </c>
-      <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>301</v>
+      </c>
       <c r="G10" s="28">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>198</v>
+      </c>
       <c r="I10" s="41" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -8916,29 +9842,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>42736</v>
       </c>
-      <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>302</v>
+      </c>
       <c r="G11" s="28">
-        <v>2</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>183</v>
+        <v>8</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>198</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -8953,29 +9877,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>42736</v>
       </c>
-      <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>303</v>
+      </c>
       <c r="G12" s="28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -8990,29 +9912,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>42736</v>
       </c>
-      <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>304</v>
+      </c>
       <c r="G13" s="28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -9027,23 +9947,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>42736</v>
       </c>
-      <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>305</v>
+      </c>
       <c r="G14" s="28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>198</v>
@@ -9064,23 +9982,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>42736</v>
       </c>
-      <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="G15" s="28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>198</v>
@@ -9098,30 +10014,30 @@
         <v>116</v>
       </c>
       <c r="Q15" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>42736</v>
       </c>
-      <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>307</v>
+      </c>
       <c r="G16" s="28">
-        <v>1</v>
-      </c>
-      <c r="H16" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>198</v>
+      </c>
       <c r="I16" s="41" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -9136,29 +10052,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13">
         <v>42736</v>
       </c>
-      <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>308</v>
+      </c>
       <c r="G17" s="28">
-        <v>2</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>183</v>
+        <v>14</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>198</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
@@ -9173,29 +10087,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>42736</v>
       </c>
-      <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>309</v>
+      </c>
       <c r="G18" s="28">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -9210,29 +10122,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
         <v>42736</v>
       </c>
-      <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>310</v>
+      </c>
       <c r="G19" s="28">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="I19" s="41" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -9247,23 +10157,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>42736</v>
       </c>
-      <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>311</v>
+      </c>
       <c r="G20" s="28">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H20" s="41" t="s">
         <v>198</v>
@@ -9284,23 +10192,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13">
         <v>42736</v>
       </c>
-      <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="28"/>
+        <v>274</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>312</v>
+      </c>
       <c r="G21" s="28">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H21" s="41" t="s">
         <v>198</v>
@@ -9318,18 +10224,1646 @@
         <v>116</v>
       </c>
       <c r="Q21" s="24" t="s">
-        <v>25</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="28">
+        <v>19</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G23" s="28">
+        <v>20</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" s="28">
+        <v>21</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="28">
+        <v>22</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28">
+        <v>1</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28">
+        <v>2</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28">
+        <v>3</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28">
+        <v>4</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28">
+        <v>5</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I30" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28">
+        <v>6</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="28">
+        <v>7</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" s="28">
+        <v>8</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" s="28">
+        <v>9</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" s="28">
+        <v>10</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" s="28">
+        <v>11</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="28">
+        <v>12</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="28">
+        <v>13</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="28">
+        <v>14</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="28">
+        <v>15</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q40" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" s="28">
+        <v>16</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="28">
+        <v>17</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q42" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="28">
+        <v>18</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="28">
+        <v>19</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" s="28">
+        <v>20</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q45" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G46" s="28">
+        <v>21</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q46" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G47" s="28">
+        <v>22</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q47" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28">
+        <v>1</v>
+      </c>
+      <c r="H48" s="28"/>
+      <c r="I48" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28">
+        <v>2</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28">
+        <v>3</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28">
+        <v>4</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q51" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28">
+        <v>5</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q52" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28">
+        <v>6</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q53" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" s="28">
+        <v>7</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I54" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q54" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G55" s="28">
+        <v>8</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q55" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="28">
+        <v>9</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I56" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P56" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q56" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57" s="28">
+        <v>10</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P57" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q57" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58" s="28">
+        <v>11</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I58" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P58" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q58" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G59" s="28">
+        <v>12</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P59" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q59" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G60" s="28">
+        <v>13</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I60" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P60" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q60" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="28">
+        <v>14</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I61" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P61" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q61" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G62" s="28">
+        <v>15</v>
+      </c>
+      <c r="H62" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I62" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P62" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q62" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G63" s="28">
+        <v>16</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P63" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q63" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G64" s="28">
+        <v>17</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q64" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="G65" s="28">
+        <v>18</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I65" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q65" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G66" s="28">
+        <v>19</v>
+      </c>
+      <c r="H66" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I66" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q66" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G67" s="28">
+        <v>20</v>
+      </c>
+      <c r="H67" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P67" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q67" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G68" s="28">
+        <v>21</v>
+      </c>
+      <c r="H68" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P68" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q68" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="13">
+        <v>42736</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G69" s="28">
+        <v>22</v>
+      </c>
+      <c r="H69" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I69" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="P69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q69" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="24"/>
+    </row>
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="24"/>
+    </row>
+    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+    </row>
+    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+    </row>
+    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G21" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B48:B53 B26:B31 B4:B9" xr:uid="{00000000-0002-0000-0600-000001000000}">
+      <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G69" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B21" xr:uid="{00000000-0002-0000-0600-000001000000}">
-      <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A21" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A69" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
@@ -9345,10 +11879,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O184"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11145,26 +13679,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
         <v>42736</v>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>188</v>
+      <c r="C49" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" s="28">
-        <v>1</v>
-      </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>199</v>
@@ -11179,29 +13712,28 @@
         <v>1</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="13">
         <v>42736</v>
       </c>
       <c r="B50" s="13"/>
-      <c r="C50" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>188</v>
+      <c r="C50" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="E50" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F50" s="28">
-        <v>2</v>
-      </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="41" t="s">
-        <v>25</v>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>199</v>
@@ -11216,29 +13748,28 @@
         <v>1</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="13">
         <v>42736</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>188</v>
+      <c r="C51" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="28">
-        <v>3</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>199</v>
@@ -11253,29 +13784,28 @@
         <v>1</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="13">
         <v>42736</v>
       </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="28">
-        <v>4</v>
-      </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="41" t="s">
-        <v>25</v>
+      <c r="C52" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>199</v>
@@ -11290,29 +13820,28 @@
         <v>1</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>42736</v>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F53" s="28">
-        <v>5</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="41" t="s">
-        <v>25</v>
+      <c r="C53" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="14">
+        <v>1</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>199</v>
@@ -11327,399 +13856,388 @@
         <v>1</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>42736</v>
       </c>
       <c r="B54" s="13"/>
-      <c r="C54" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="28">
-        <v>1</v>
-      </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="41" t="s">
-        <v>25</v>
+      <c r="C54" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="14">
+        <v>1</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L54" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <v>42736</v>
       </c>
       <c r="B55" s="13"/>
-      <c r="C55" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="28">
-        <v>2</v>
-      </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="41" t="s">
-        <v>25</v>
+      <c r="C55" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="14">
+        <v>1</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L55" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="13">
         <v>42736</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="28">
-        <v>3</v>
-      </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="41" t="s">
-        <v>25</v>
+      <c r="C56" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" s="14">
+        <v>1</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L56" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13">
         <v>42736</v>
       </c>
       <c r="B57" s="13"/>
-      <c r="C57" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" s="28">
-        <v>4</v>
-      </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="41" t="s">
-        <v>25</v>
+      <c r="C57" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" s="14">
+        <v>1</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L57" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="13">
         <v>42736</v>
       </c>
       <c r="B58" s="13"/>
-      <c r="C58" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="28">
-        <v>5</v>
-      </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="41" t="s">
-        <v>25</v>
+      <c r="C58" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="14">
+        <v>1</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L58" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="13">
         <v>42736</v>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="F59" s="28">
-        <v>6</v>
-      </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="41" t="s">
-        <v>25</v>
+      <c r="C59" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="14">
+        <v>1</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L59" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13">
         <v>42736</v>
       </c>
       <c r="B60" s="13"/>
-      <c r="C60" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F60" s="28">
-        <v>7</v>
-      </c>
-      <c r="G60" s="28"/>
-      <c r="H60" s="41" t="s">
-        <v>25</v>
+      <c r="C60" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="14">
+        <v>1</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L60" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
         <v>42736</v>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="F61" s="28">
-        <v>1</v>
-      </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="41" t="s">
-        <v>25</v>
+      <c r="C61" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="14">
+        <v>1</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L61" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13">
         <v>42736</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F62" s="28">
-        <v>2</v>
-      </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="41" t="s">
-        <v>25</v>
+      <c r="C62" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="14">
+        <v>1</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L62" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13">
         <v>42736</v>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F63" s="28">
-        <v>3</v>
-      </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="41" t="s">
-        <v>25</v>
+      <c r="C63" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="14">
+        <v>1</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I63" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L63" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="13">
         <v>42736</v>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>196</v>
+      <c r="C64" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>300</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="28">
-        <v>1</v>
-      </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F64" s="14">
+        <v>1</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I64" s="28" t="s">
         <v>199</v>
@@ -11734,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="O64" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11746,13 +14264,13 @@
         <v>275</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F65" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="41" t="s">
@@ -11783,13 +14301,13 @@
         <v>275</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F66" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="41" t="s">
@@ -11820,13 +14338,13 @@
         <v>275</v>
       </c>
       <c r="D67" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>142</v>
+        <v>188</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F67" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67" s="28"/>
       <c r="H67" s="41" t="s">
@@ -11857,13 +14375,13 @@
         <v>275</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F68" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="41" t="s">
@@ -11894,13 +14412,13 @@
         <v>275</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F69" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" s="41" t="s">
@@ -11910,13 +14428,13 @@
         <v>199</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L69" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69" s="24" t="s">
         <v>72</v>
@@ -11931,13 +14449,13 @@
         <v>275</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F70" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="28"/>
       <c r="H70" s="41" t="s">
@@ -11968,13 +14486,13 @@
         <v>275</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="F71" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="41" t="s">
@@ -12005,13 +14523,13 @@
         <v>275</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="F72" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G72" s="28"/>
       <c r="H72" s="41" t="s">
@@ -12042,13 +14560,13 @@
         <v>275</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F73" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73" s="28"/>
       <c r="H73" s="41" t="s">
@@ -12079,13 +14597,13 @@
         <v>275</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F74" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="41" t="s">
@@ -12116,13 +14634,13 @@
         <v>275</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F75" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G75" s="28"/>
       <c r="H75" s="41" t="s">
@@ -12132,16 +14650,16 @@
         <v>199</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L75" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O75" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12153,13 +14671,13 @@
         <v>275</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E76" s="41" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="F76" s="28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G76" s="28"/>
       <c r="H76" s="41" t="s">
@@ -12169,16 +14687,16 @@
         <v>199</v>
       </c>
       <c r="J76" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L76" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12190,13 +14708,13 @@
         <v>275</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E77" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F77" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="41" t="s">
@@ -12227,29 +14745,29 @@
         <v>275</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>232</v>
       </c>
       <c r="F78" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="28"/>
-      <c r="H78" s="28" t="s">
-        <v>72</v>
+      <c r="H78" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L78" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" s="24" t="s">
         <v>25</v>
@@ -12264,29 +14782,29 @@
         <v>275</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>235</v>
       </c>
       <c r="F79" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" s="28"/>
-      <c r="H79" s="28" t="s">
-        <v>72</v>
+      <c r="H79" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J79" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L79" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O79" s="24" t="s">
         <v>25</v>
@@ -12301,17 +14819,17 @@
         <v>275</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F80" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" s="28"/>
-      <c r="H80" s="28" t="s">
-        <v>72</v>
+      <c r="H80" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>199</v>
@@ -12326,7 +14844,7 @@
         <v>1</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12338,17 +14856,17 @@
         <v>275</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E81" s="41" t="s">
-        <v>142</v>
+        <v>196</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F81" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G81" s="28"/>
-      <c r="H81" s="28" t="s">
-        <v>72</v>
+      <c r="H81" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>199</v>
@@ -12363,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12375,17 +14893,17 @@
         <v>275</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" s="41" t="s">
-        <v>144</v>
+        <v>196</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F82" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G82" s="28"/>
-      <c r="H82" s="28" t="s">
-        <v>72</v>
+      <c r="H82" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>199</v>
@@ -12400,7 +14918,7 @@
         <v>1</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12412,32 +14930,32 @@
         <v>275</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F83" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G83" s="28"/>
-      <c r="H83" s="28" t="s">
-        <v>72</v>
+      <c r="H83" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L83" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12449,32 +14967,32 @@
         <v>275</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F84" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G84" s="28"/>
-      <c r="H84" s="28" t="s">
-        <v>72</v>
+      <c r="H84" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J84" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L84" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12486,17 +15004,17 @@
         <v>275</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="F85" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" s="28"/>
-      <c r="H85" s="28" t="s">
-        <v>72</v>
+      <c r="H85" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>199</v>
@@ -12511,7 +15029,7 @@
         <v>2</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12523,17 +15041,17 @@
         <v>275</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F86" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G86" s="28"/>
-      <c r="H86" s="28" t="s">
-        <v>72</v>
+      <c r="H86" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>199</v>
@@ -12548,7 +15066,7 @@
         <v>2</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12560,17 +15078,17 @@
         <v>275</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E87" s="41" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="F87" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G87" s="28"/>
-      <c r="H87" s="28" t="s">
-        <v>72</v>
+      <c r="H87" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I87" s="28" t="s">
         <v>199</v>
@@ -12585,7 +15103,7 @@
         <v>2</v>
       </c>
       <c r="O87" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12597,17 +15115,17 @@
         <v>275</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F88" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G88" s="28"/>
-      <c r="H88" s="28" t="s">
-        <v>72</v>
+      <c r="H88" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>199</v>
@@ -12622,7 +15140,7 @@
         <v>2</v>
       </c>
       <c r="O88" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12634,32 +15152,32 @@
         <v>275</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="F89" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G89" s="28"/>
-      <c r="H89" s="28" t="s">
-        <v>72</v>
+      <c r="H89" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L89" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O89" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12671,32 +15189,32 @@
         <v>275</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="F90" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G90" s="28"/>
-      <c r="H90" s="28" t="s">
-        <v>72</v>
+      <c r="H90" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I90" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L90" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O90" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12708,17 +15226,17 @@
         <v>275</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E91" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F91" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G91" s="28"/>
-      <c r="H91" s="28" t="s">
-        <v>72</v>
+      <c r="H91" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I91" s="28" t="s">
         <v>199</v>
@@ -12742,16 +15260,16 @@
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D92" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E92" s="28" t="s">
-        <v>133</v>
+        <v>196</v>
+      </c>
+      <c r="E92" s="41" t="s">
+        <v>232</v>
       </c>
       <c r="F92" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="28"/>
       <c r="H92" s="41" t="s">
@@ -12761,16 +15279,16 @@
         <v>199</v>
       </c>
       <c r="J92" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L92" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O92" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12779,16 +15297,16 @@
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D93" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E93" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>235</v>
       </c>
       <c r="F93" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G93" s="28"/>
       <c r="H93" s="41" t="s">
@@ -12798,16 +15316,16 @@
         <v>199</v>
       </c>
       <c r="J93" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L93" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O93" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12816,20 +15334,20 @@
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F94" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" s="28"/>
-      <c r="H94" s="41" t="s">
-        <v>25</v>
+      <c r="H94" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I94" s="28" t="s">
         <v>199</v>
@@ -12844,7 +15362,7 @@
         <v>1</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12853,20 +15371,20 @@
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D95" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E95" s="41" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F95" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G95" s="28"/>
-      <c r="H95" s="41" t="s">
-        <v>25</v>
+      <c r="H95" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I95" s="28" t="s">
         <v>199</v>
@@ -12881,7 +15399,7 @@
         <v>1</v>
       </c>
       <c r="O95" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12890,20 +15408,20 @@
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E96" s="41" t="s">
-        <v>144</v>
+        <v>204</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F96" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G96" s="28"/>
-      <c r="H96" s="41" t="s">
-        <v>25</v>
+      <c r="H96" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I96" s="28" t="s">
         <v>199</v>
@@ -12918,7 +15436,7 @@
         <v>1</v>
       </c>
       <c r="O96" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12927,35 +15445,35 @@
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F97" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G97" s="28"/>
-      <c r="H97" s="41" t="s">
-        <v>25</v>
+      <c r="H97" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I97" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L97" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O97" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12964,35 +15482,35 @@
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F98" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G98" s="28"/>
-      <c r="H98" s="41" t="s">
-        <v>25</v>
+      <c r="H98" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I98" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J98" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K98" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L98" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O98" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13001,20 +15519,20 @@
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="F99" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" s="28"/>
-      <c r="H99" s="41" t="s">
-        <v>25</v>
+      <c r="H99" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I99" s="28" t="s">
         <v>199</v>
@@ -13029,7 +15547,7 @@
         <v>2</v>
       </c>
       <c r="O99" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13038,20 +15556,20 @@
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F100" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G100" s="28"/>
-      <c r="H100" s="41" t="s">
-        <v>25</v>
+      <c r="H100" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I100" s="28" t="s">
         <v>199</v>
@@ -13066,7 +15584,7 @@
         <v>2</v>
       </c>
       <c r="O100" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13075,20 +15593,20 @@
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D101" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E101" s="41" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="F101" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G101" s="28"/>
-      <c r="H101" s="41" t="s">
-        <v>25</v>
+      <c r="H101" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I101" s="28" t="s">
         <v>199</v>
@@ -13103,7 +15621,7 @@
         <v>2</v>
       </c>
       <c r="O101" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13112,20 +15630,20 @@
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E102" s="41" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="F102" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G102" s="28"/>
-      <c r="H102" s="41" t="s">
-        <v>25</v>
+      <c r="H102" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I102" s="28" t="s">
         <v>199</v>
@@ -13140,7 +15658,7 @@
         <v>2</v>
       </c>
       <c r="O102" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13149,20 +15667,20 @@
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E103" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F103" s="28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G103" s="28"/>
-      <c r="H103" s="41" t="s">
-        <v>25</v>
+      <c r="H103" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I103" s="28" t="s">
         <v>199</v>
@@ -13177,7 +15695,7 @@
         <v>2</v>
       </c>
       <c r="O103" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13186,32 +15704,32 @@
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="F104" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G104" s="28"/>
-      <c r="H104" s="41" t="s">
-        <v>25</v>
+      <c r="H104" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I104" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J104" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L104" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O104" s="24" t="s">
         <v>25</v>
@@ -13223,20 +15741,20 @@
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E105" s="41" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F105" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105" s="28"/>
-      <c r="H105" s="41" t="s">
-        <v>25</v>
+      <c r="H105" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I105" s="28" t="s">
         <v>199</v>
@@ -13260,20 +15778,20 @@
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E106" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F106" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106" s="28"/>
-      <c r="H106" s="41" t="s">
-        <v>25</v>
+      <c r="H106" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I106" s="28" t="s">
         <v>199</v>
@@ -13297,20 +15815,20 @@
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D107" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F107" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G107" s="28"/>
-      <c r="H107" s="41" t="s">
-        <v>25</v>
+      <c r="H107" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I107" s="28" t="s">
         <v>199</v>
@@ -13325,29 +15843,28 @@
         <v>3</v>
       </c>
       <c r="O107" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="13">
         <v>42736</v>
       </c>
       <c r="B108" s="13"/>
-      <c r="C108" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D108" s="41" t="s">
-        <v>196</v>
+      <c r="C108" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F108" s="28">
-        <v>1</v>
-      </c>
-      <c r="G108" s="28"/>
-      <c r="H108" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F108" s="14">
+        <v>1</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I108" s="28" t="s">
         <v>199</v>
@@ -13362,29 +15879,28 @@
         <v>1</v>
       </c>
       <c r="O108" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="13">
         <v>42736</v>
       </c>
       <c r="B109" s="13"/>
-      <c r="C109" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D109" s="41" t="s">
-        <v>196</v>
+      <c r="C109" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="E109" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F109" s="28">
-        <v>2</v>
-      </c>
-      <c r="G109" s="28"/>
-      <c r="H109" s="41" t="s">
-        <v>25</v>
+      <c r="F109" s="14">
+        <v>1</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I109" s="28" t="s">
         <v>199</v>
@@ -13399,29 +15915,28 @@
         <v>1</v>
       </c>
       <c r="O109" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="13">
         <v>42736</v>
       </c>
       <c r="B110" s="13"/>
-      <c r="C110" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>196</v>
+      <c r="C110" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="E110" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F110" s="28">
-        <v>3</v>
-      </c>
-      <c r="G110" s="28"/>
-      <c r="H110" s="41" t="s">
-        <v>25</v>
+        <v>135</v>
+      </c>
+      <c r="F110" s="14">
+        <v>1</v>
+      </c>
+      <c r="H110" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I110" s="28" t="s">
         <v>199</v>
@@ -13436,29 +15951,28 @@
         <v>1</v>
       </c>
       <c r="O110" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="13">
         <v>42736</v>
       </c>
       <c r="B111" s="13"/>
-      <c r="C111" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D111" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E111" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="F111" s="28">
-        <v>4</v>
-      </c>
-      <c r="G111" s="28"/>
-      <c r="H111" s="41" t="s">
-        <v>25</v>
+      <c r="C111" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F111" s="14">
+        <v>1</v>
+      </c>
+      <c r="H111" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I111" s="28" t="s">
         <v>199</v>
@@ -13473,29 +15987,28 @@
         <v>1</v>
       </c>
       <c r="O111" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="13">
         <v>42736</v>
       </c>
       <c r="B112" s="13"/>
-      <c r="C112" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D112" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E112" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="F112" s="28">
-        <v>5</v>
-      </c>
-      <c r="G112" s="28"/>
-      <c r="H112" s="41" t="s">
-        <v>25</v>
+      <c r="C112" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F112" s="14">
+        <v>1</v>
+      </c>
+      <c r="H112" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I112" s="28" t="s">
         <v>199</v>
@@ -13510,397 +16023,386 @@
         <v>1</v>
       </c>
       <c r="O112" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="13">
         <v>42736</v>
       </c>
       <c r="B113" s="13"/>
-      <c r="C113" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E113" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="F113" s="28">
-        <v>1</v>
-      </c>
-      <c r="G113" s="28"/>
-      <c r="H113" s="41" t="s">
-        <v>25</v>
+      <c r="C113" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F113" s="14">
+        <v>1</v>
+      </c>
+      <c r="H113" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I113" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J113" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L113" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O113" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="13">
         <v>42736</v>
       </c>
       <c r="B114" s="13"/>
-      <c r="C114" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D114" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E114" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" s="28">
-        <v>2</v>
-      </c>
-      <c r="G114" s="28"/>
-      <c r="H114" s="41" t="s">
-        <v>25</v>
+      <c r="C114" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F114" s="14">
+        <v>1</v>
+      </c>
+      <c r="H114" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I114" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J114" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K114" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L114" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O114" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="13">
         <v>42736</v>
       </c>
       <c r="B115" s="13"/>
-      <c r="C115" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D115" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E115" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="F115" s="28">
-        <v>3</v>
-      </c>
-      <c r="G115" s="28"/>
-      <c r="H115" s="41" t="s">
-        <v>25</v>
+      <c r="C115" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F115" s="14">
+        <v>1</v>
+      </c>
+      <c r="H115" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I115" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J115" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L115" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O115" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="13">
         <v>42736</v>
       </c>
       <c r="B116" s="13"/>
-      <c r="C116" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D116" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E116" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F116" s="28">
-        <v>4</v>
-      </c>
-      <c r="G116" s="28"/>
-      <c r="H116" s="41" t="s">
-        <v>25</v>
+      <c r="C116" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" s="14">
+        <v>1</v>
+      </c>
+      <c r="H116" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I116" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J116" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K116" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L116" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O116" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="13">
         <v>42736</v>
       </c>
       <c r="B117" s="13"/>
-      <c r="C117" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D117" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E117" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="F117" s="28">
-        <v>5</v>
-      </c>
-      <c r="G117" s="28"/>
-      <c r="H117" s="41" t="s">
-        <v>25</v>
+      <c r="C117" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F117" s="14">
+        <v>1</v>
+      </c>
+      <c r="H117" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I117" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J117" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L117" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O117" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="13">
         <v>42736</v>
       </c>
       <c r="B118" s="13"/>
-      <c r="C118" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D118" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E118" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F118" s="28">
-        <v>6</v>
-      </c>
-      <c r="G118" s="28"/>
-      <c r="H118" s="41" t="s">
-        <v>25</v>
+      <c r="C118" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" s="14">
+        <v>1</v>
+      </c>
+      <c r="H118" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I118" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J118" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L118" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O118" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="13">
         <v>42736</v>
       </c>
       <c r="B119" s="13"/>
-      <c r="C119" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D119" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E119" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="F119" s="28">
-        <v>1</v>
-      </c>
-      <c r="G119" s="28"/>
-      <c r="H119" s="41" t="s">
-        <v>25</v>
+      <c r="C119" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F119" s="14">
+        <v>1</v>
+      </c>
+      <c r="H119" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I119" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J119" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K119" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L119" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O119" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="13">
         <v>42736</v>
       </c>
       <c r="B120" s="13"/>
-      <c r="C120" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D120" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E120" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F120" s="28">
-        <v>2</v>
-      </c>
-      <c r="G120" s="28"/>
-      <c r="H120" s="41" t="s">
-        <v>25</v>
+      <c r="C120" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120" s="14">
+        <v>1</v>
+      </c>
+      <c r="H120" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I120" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J120" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K120" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L120" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O120" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="13">
         <v>42736</v>
       </c>
       <c r="B121" s="13"/>
-      <c r="C121" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D121" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E121" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="F121" s="28">
-        <v>3</v>
-      </c>
-      <c r="G121" s="28"/>
-      <c r="H121" s="41" t="s">
-        <v>25</v>
+      <c r="C121" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E121" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F121" s="14">
+        <v>1</v>
+      </c>
+      <c r="H121" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I121" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J121" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K121" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L121" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O121" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="13">
         <v>42736</v>
       </c>
       <c r="B122" s="13"/>
-      <c r="C122" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D122" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E122" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="F122" s="28">
-        <v>4</v>
-      </c>
-      <c r="G122" s="28"/>
-      <c r="H122" s="41" t="s">
-        <v>25</v>
+      <c r="C122" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" s="14">
+        <v>1</v>
+      </c>
+      <c r="H122" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I122" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J122" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L122" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O122" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="13">
         <v>42736</v>
       </c>
       <c r="B123" s="13"/>
-      <c r="C123" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D123" s="41" t="s">
-        <v>204</v>
+      <c r="C123" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>300</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F123" s="28">
-        <v>1</v>
-      </c>
-      <c r="G123" s="28"/>
+        <v>135</v>
+      </c>
+      <c r="F123" s="14">
+        <v>1</v>
+      </c>
       <c r="H123" s="28" t="s">
         <v>72</v>
       </c>
@@ -13929,17 +16431,17 @@
         <v>276</v>
       </c>
       <c r="D124" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F124" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" s="28"/>
-      <c r="H124" s="28" t="s">
-        <v>72</v>
+      <c r="H124" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I124" s="28" t="s">
         <v>199</v>
@@ -13954,7 +16456,7 @@
         <v>1</v>
       </c>
       <c r="O124" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -13966,17 +16468,17 @@
         <v>276</v>
       </c>
       <c r="D125" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F125" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G125" s="28"/>
-      <c r="H125" s="28" t="s">
-        <v>72</v>
+      <c r="H125" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I125" s="28" t="s">
         <v>199</v>
@@ -13991,7 +16493,7 @@
         <v>1</v>
       </c>
       <c r="O125" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14003,17 +16505,17 @@
         <v>276</v>
       </c>
       <c r="D126" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E126" s="41" t="s">
-        <v>142</v>
+        <v>188</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F126" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126" s="28"/>
-      <c r="H126" s="28" t="s">
-        <v>72</v>
+      <c r="H126" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I126" s="28" t="s">
         <v>199</v>
@@ -14028,7 +16530,7 @@
         <v>1</v>
       </c>
       <c r="O126" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14040,17 +16542,17 @@
         <v>276</v>
       </c>
       <c r="D127" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E127" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F127" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G127" s="28"/>
-      <c r="H127" s="28" t="s">
-        <v>72</v>
+      <c r="H127" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>199</v>
@@ -14065,7 +16567,7 @@
         <v>1</v>
       </c>
       <c r="O127" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14077,32 +16579,32 @@
         <v>276</v>
       </c>
       <c r="D128" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E128" s="41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F128" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G128" s="28"/>
-      <c r="H128" s="28" t="s">
-        <v>72</v>
+      <c r="H128" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J128" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K128" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L128" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O128" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14114,17 +16616,17 @@
         <v>276</v>
       </c>
       <c r="D129" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E129" s="41" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F129" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G129" s="28"/>
-      <c r="H129" s="28" t="s">
-        <v>72</v>
+      <c r="H129" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>199</v>
@@ -14139,7 +16641,7 @@
         <v>2</v>
       </c>
       <c r="O129" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14151,17 +16653,17 @@
         <v>276</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E130" s="41" t="s">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="F130" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G130" s="28"/>
-      <c r="H130" s="28" t="s">
-        <v>72</v>
+      <c r="H130" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>199</v>
@@ -14176,7 +16678,7 @@
         <v>2</v>
       </c>
       <c r="O130" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14188,17 +16690,17 @@
         <v>276</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E131" s="41" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="F131" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G131" s="28"/>
-      <c r="H131" s="28" t="s">
-        <v>72</v>
+      <c r="H131" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I131" s="28" t="s">
         <v>199</v>
@@ -14213,7 +16715,7 @@
         <v>2</v>
       </c>
       <c r="O131" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14225,17 +16727,17 @@
         <v>276</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E132" s="41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F132" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G132" s="28"/>
-      <c r="H132" s="28" t="s">
-        <v>72</v>
+      <c r="H132" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I132" s="28" t="s">
         <v>199</v>
@@ -14250,7 +16752,7 @@
         <v>2</v>
       </c>
       <c r="O132" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14262,17 +16764,17 @@
         <v>276</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E133" s="41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F133" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G133" s="28"/>
-      <c r="H133" s="28" t="s">
-        <v>72</v>
+      <c r="H133" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I133" s="28" t="s">
         <v>199</v>
@@ -14287,7 +16789,7 @@
         <v>2</v>
       </c>
       <c r="O133" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14299,32 +16801,32 @@
         <v>276</v>
       </c>
       <c r="D134" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E134" s="41" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F134" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G134" s="28"/>
-      <c r="H134" s="28" t="s">
-        <v>72</v>
+      <c r="H134" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I134" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K134" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L134" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O134" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14336,32 +16838,32 @@
         <v>276</v>
       </c>
       <c r="D135" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E135" s="41" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="F135" s="28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G135" s="28"/>
-      <c r="H135" s="28" t="s">
-        <v>72</v>
+      <c r="H135" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I135" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K135" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L135" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O135" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14373,17 +16875,17 @@
         <v>276</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E136" s="41" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F136" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G136" s="28"/>
-      <c r="H136" s="28" t="s">
-        <v>72</v>
+      <c r="H136" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I136" s="28" t="s">
         <v>199</v>
@@ -14401,12 +16903,1772 @@
         <v>25</v>
       </c>
     </row>
+    <row r="137" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B137" s="13"/>
+      <c r="C137" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F137" s="28">
+        <v>2</v>
+      </c>
+      <c r="G137" s="28"/>
+      <c r="H137" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J137" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K137" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L137" s="14">
+        <v>3</v>
+      </c>
+      <c r="O137" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E138" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F138" s="28">
+        <v>3</v>
+      </c>
+      <c r="G138" s="28"/>
+      <c r="H138" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I138" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J138" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K138" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L138" s="14">
+        <v>3</v>
+      </c>
+      <c r="O138" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B139" s="13"/>
+      <c r="C139" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D139" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="F139" s="28">
+        <v>4</v>
+      </c>
+      <c r="G139" s="28"/>
+      <c r="H139" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I139" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J139" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K139" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L139" s="14">
+        <v>3</v>
+      </c>
+      <c r="O139" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D140" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E140" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F140" s="28">
+        <v>1</v>
+      </c>
+      <c r="G140" s="28"/>
+      <c r="H140" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I140" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J140" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K140" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L140" s="14">
+        <v>1</v>
+      </c>
+      <c r="O140" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D141" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E141" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F141" s="28">
+        <v>2</v>
+      </c>
+      <c r="G141" s="28"/>
+      <c r="H141" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I141" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J141" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K141" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L141" s="14">
+        <v>1</v>
+      </c>
+      <c r="O141" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D142" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F142" s="28">
+        <v>3</v>
+      </c>
+      <c r="G142" s="28"/>
+      <c r="H142" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I142" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J142" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K142" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L142" s="14">
+        <v>1</v>
+      </c>
+      <c r="O142" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D143" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E143" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F143" s="28">
+        <v>4</v>
+      </c>
+      <c r="G143" s="28"/>
+      <c r="H143" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I143" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J143" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K143" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L143" s="14">
+        <v>1</v>
+      </c>
+      <c r="O143" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B144" s="13"/>
+      <c r="C144" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D144" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E144" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F144" s="28">
+        <v>5</v>
+      </c>
+      <c r="G144" s="28"/>
+      <c r="H144" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I144" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J144" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K144" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L144" s="14">
+        <v>1</v>
+      </c>
+      <c r="O144" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B145" s="13"/>
+      <c r="C145" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D145" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E145" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F145" s="28">
+        <v>1</v>
+      </c>
+      <c r="G145" s="28"/>
+      <c r="H145" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J145" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K145" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L145" s="14">
+        <v>2</v>
+      </c>
+      <c r="O145" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D146" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F146" s="28">
+        <v>2</v>
+      </c>
+      <c r="G146" s="28"/>
+      <c r="H146" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I146" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J146" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K146" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L146" s="14">
+        <v>2</v>
+      </c>
+      <c r="O146" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D147" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F147" s="28">
+        <v>3</v>
+      </c>
+      <c r="G147" s="28"/>
+      <c r="H147" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I147" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J147" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K147" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L147" s="14">
+        <v>2</v>
+      </c>
+      <c r="O147" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D148" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E148" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F148" s="28">
+        <v>4</v>
+      </c>
+      <c r="G148" s="28"/>
+      <c r="H148" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I148" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J148" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K148" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L148" s="14">
+        <v>2</v>
+      </c>
+      <c r="O148" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B149" s="13"/>
+      <c r="C149" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D149" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E149" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F149" s="28">
+        <v>5</v>
+      </c>
+      <c r="G149" s="28"/>
+      <c r="H149" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I149" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J149" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K149" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L149" s="14">
+        <v>2</v>
+      </c>
+      <c r="O149" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D150" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E150" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F150" s="28">
+        <v>6</v>
+      </c>
+      <c r="G150" s="28"/>
+      <c r="H150" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I150" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J150" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K150" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L150" s="14">
+        <v>2</v>
+      </c>
+      <c r="O150" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D151" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F151" s="28">
+        <v>1</v>
+      </c>
+      <c r="G151" s="28"/>
+      <c r="H151" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I151" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J151" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K151" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L151" s="14">
+        <v>3</v>
+      </c>
+      <c r="O151" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B152" s="13"/>
+      <c r="C152" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D152" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E152" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F152" s="28">
+        <v>2</v>
+      </c>
+      <c r="G152" s="28"/>
+      <c r="H152" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I152" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J152" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K152" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L152" s="14">
+        <v>3</v>
+      </c>
+      <c r="O152" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B153" s="13"/>
+      <c r="C153" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D153" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E153" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F153" s="28">
+        <v>3</v>
+      </c>
+      <c r="G153" s="28"/>
+      <c r="H153" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I153" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J153" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K153" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L153" s="14">
+        <v>3</v>
+      </c>
+      <c r="O153" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D154" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E154" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="F154" s="28">
+        <v>4</v>
+      </c>
+      <c r="G154" s="28"/>
+      <c r="H154" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I154" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J154" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K154" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L154" s="14">
+        <v>3</v>
+      </c>
+      <c r="O154" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D155" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E155" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F155" s="28">
+        <v>1</v>
+      </c>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I155" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J155" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K155" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L155" s="14">
+        <v>1</v>
+      </c>
+      <c r="O155" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D156" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F156" s="28">
+        <v>2</v>
+      </c>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J156" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K156" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L156" s="14">
+        <v>1</v>
+      </c>
+      <c r="O156" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B157" s="13"/>
+      <c r="C157" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D157" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E157" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F157" s="28">
+        <v>3</v>
+      </c>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J157" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K157" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L157" s="14">
+        <v>1</v>
+      </c>
+      <c r="O157" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B158" s="13"/>
+      <c r="C158" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D158" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E158" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F158" s="28">
+        <v>4</v>
+      </c>
+      <c r="G158" s="28"/>
+      <c r="H158" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I158" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J158" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K158" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L158" s="14">
+        <v>1</v>
+      </c>
+      <c r="O158" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D159" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E159" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F159" s="28">
+        <v>5</v>
+      </c>
+      <c r="G159" s="28"/>
+      <c r="H159" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J159" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K159" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L159" s="14">
+        <v>1</v>
+      </c>
+      <c r="O159" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B160" s="13"/>
+      <c r="C160" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D160" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E160" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F160" s="28">
+        <v>1</v>
+      </c>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J160" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K160" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L160" s="14">
+        <v>2</v>
+      </c>
+      <c r="O160" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B161" s="13"/>
+      <c r="C161" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D161" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E161" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F161" s="28">
+        <v>2</v>
+      </c>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I161" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J161" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K161" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L161" s="14">
+        <v>2</v>
+      </c>
+      <c r="O161" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D162" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E162" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F162" s="28">
+        <v>3</v>
+      </c>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J162" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K162" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L162" s="14">
+        <v>2</v>
+      </c>
+      <c r="O162" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B163" s="13"/>
+      <c r="C163" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D163" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E163" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F163" s="28">
+        <v>4</v>
+      </c>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I163" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J163" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K163" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L163" s="14">
+        <v>2</v>
+      </c>
+      <c r="O163" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E164" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F164" s="28">
+        <v>5</v>
+      </c>
+      <c r="G164" s="28"/>
+      <c r="H164" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I164" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J164" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K164" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L164" s="14">
+        <v>2</v>
+      </c>
+      <c r="O164" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B165" s="13"/>
+      <c r="C165" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D165" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E165" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F165" s="28">
+        <v>6</v>
+      </c>
+      <c r="G165" s="28"/>
+      <c r="H165" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I165" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J165" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K165" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L165" s="14">
+        <v>2</v>
+      </c>
+      <c r="O165" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D166" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E166" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F166" s="28">
+        <v>1</v>
+      </c>
+      <c r="G166" s="28"/>
+      <c r="H166" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J166" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K166" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L166" s="14">
+        <v>3</v>
+      </c>
+      <c r="O166" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B167" s="13"/>
+      <c r="C167" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D167" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E167" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F167" s="28">
+        <v>2</v>
+      </c>
+      <c r="G167" s="28"/>
+      <c r="H167" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I167" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J167" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K167" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L167" s="14">
+        <v>3</v>
+      </c>
+      <c r="O167" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B168" s="13"/>
+      <c r="C168" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D168" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E168" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F168" s="28">
+        <v>3</v>
+      </c>
+      <c r="G168" s="28"/>
+      <c r="H168" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I168" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J168" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K168" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L168" s="14">
+        <v>3</v>
+      </c>
+      <c r="O168" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B169" s="13"/>
+      <c r="C169" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E169" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F169" s="14">
+        <v>1</v>
+      </c>
+      <c r="H169" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I169" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J169" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K169" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L169" s="14">
+        <v>1</v>
+      </c>
+      <c r="O169" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B170" s="13"/>
+      <c r="C170" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D170" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="E170" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F170" s="14">
+        <v>1</v>
+      </c>
+      <c r="H170" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I170" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J170" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K170" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L170" s="14">
+        <v>1</v>
+      </c>
+      <c r="O170" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B171" s="13"/>
+      <c r="C171" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D171" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E171" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F171" s="14">
+        <v>1</v>
+      </c>
+      <c r="H171" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I171" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J171" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K171" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L171" s="14">
+        <v>1</v>
+      </c>
+      <c r="O171" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B172" s="13"/>
+      <c r="C172" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D172" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E172" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F172" s="14">
+        <v>1</v>
+      </c>
+      <c r="H172" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I172" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J172" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K172" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L172" s="14">
+        <v>1</v>
+      </c>
+      <c r="O172" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B173" s="13"/>
+      <c r="C173" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="E173" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F173" s="14">
+        <v>1</v>
+      </c>
+      <c r="H173" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I173" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J173" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K173" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L173" s="14">
+        <v>1</v>
+      </c>
+      <c r="O173" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B174" s="13"/>
+      <c r="C174" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E174" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F174" s="14">
+        <v>1</v>
+      </c>
+      <c r="H174" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J174" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K174" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L174" s="14">
+        <v>1</v>
+      </c>
+      <c r="O174" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B175" s="13"/>
+      <c r="C175" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E175" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F175" s="14">
+        <v>1</v>
+      </c>
+      <c r="H175" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I175" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J175" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K175" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L175" s="14">
+        <v>1</v>
+      </c>
+      <c r="O175" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E176" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F176" s="14">
+        <v>1</v>
+      </c>
+      <c r="H176" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J176" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K176" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L176" s="14">
+        <v>1</v>
+      </c>
+      <c r="O176" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B177" s="13"/>
+      <c r="C177" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E177" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F177" s="14">
+        <v>1</v>
+      </c>
+      <c r="H177" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I177" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J177" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K177" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L177" s="14">
+        <v>1</v>
+      </c>
+      <c r="O177" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E178" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F178" s="14">
+        <v>1</v>
+      </c>
+      <c r="H178" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I178" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J178" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K178" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L178" s="14">
+        <v>1</v>
+      </c>
+      <c r="O178" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B179" s="13"/>
+      <c r="C179" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E179" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F179" s="14">
+        <v>1</v>
+      </c>
+      <c r="H179" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I179" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J179" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K179" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L179" s="14">
+        <v>1</v>
+      </c>
+      <c r="O179" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B180" s="13"/>
+      <c r="C180" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E180" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F180" s="14">
+        <v>1</v>
+      </c>
+      <c r="H180" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I180" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J180" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K180" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L180" s="14">
+        <v>1</v>
+      </c>
+      <c r="O180" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B181" s="13"/>
+      <c r="C181" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E181" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F181" s="14">
+        <v>1</v>
+      </c>
+      <c r="H181" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I181" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J181" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K181" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L181" s="14">
+        <v>1</v>
+      </c>
+      <c r="O181" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B182" s="13"/>
+      <c r="C182" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D182" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E182" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F182" s="14">
+        <v>1</v>
+      </c>
+      <c r="H182" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I182" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J182" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K182" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L182" s="14">
+        <v>1</v>
+      </c>
+      <c r="O182" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B183" s="13"/>
+      <c r="C183" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E183" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F183" s="14">
+        <v>1</v>
+      </c>
+      <c r="H183" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I183" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J183" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K183" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L183" s="14">
+        <v>1</v>
+      </c>
+      <c r="O183" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B184" s="13"/>
+      <c r="C184" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E184" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F184" s="14">
+        <v>1</v>
+      </c>
+      <c r="H184" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J184" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K184" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L184" s="14">
+        <v>1</v>
+      </c>
+      <c r="O184" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A136" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A184" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B136" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B184" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8132F8-8079-1748-9F48-A8FDB055F640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416FC75-E8D8-954C-AC21-775C97FC0946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="5600" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="1280" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -1916,7 +1916,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4053,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4183,7 +4183,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4301,7 +4301,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4544,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6654,7 +6654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="144" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -6859,7 +6859,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9447,8 +9447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D25"/>
+    <sheetView topLeftCell="I2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccabaker/HMCTS/Reform/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416FC75-E8D8-954C-AC21-775C97FC0946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8082B7-E97F-3B44-9D37-D293B33733AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="1280" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">AuthorisationCaseEvent!$A$1:$F$66</definedName>
-  </definedNames>
   <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -924,94 +921,94 @@
     <t>EVENT_CRUD</t>
   </si>
   <si>
+    <t>CRUD Privilege</t>
+  </si>
+  <si>
+    <t>EVENT_CRD</t>
+  </si>
+  <si>
+    <t>CRD Privilege</t>
+  </si>
+  <si>
     <t>EVENT_CRU</t>
   </si>
   <si>
-    <t>EVENT_CRD</t>
+    <t>CRU Privilege</t>
   </si>
   <si>
     <t>EVENT_CUD</t>
   </si>
   <si>
+    <t>CUD Privilege</t>
+  </si>
+  <si>
     <t>EVENT_RUD</t>
   </si>
   <si>
+    <t>RUD Privilege</t>
+  </si>
+  <si>
     <t>EVENT_CU</t>
   </si>
   <si>
+    <t>CU Privilege</t>
+  </si>
+  <si>
     <t>EVENT_CR</t>
   </si>
   <si>
+    <t>CR Privilege</t>
+  </si>
+  <si>
     <t>EVENT_CD</t>
   </si>
   <si>
+    <t>CD Privilege</t>
+  </si>
+  <si>
     <t>EVENT_RU</t>
   </si>
   <si>
+    <t>RU Privilege</t>
+  </si>
+  <si>
     <t>EVENT_RD</t>
   </si>
   <si>
+    <t>RD Privilege</t>
+  </si>
+  <si>
     <t>EVENT_UD</t>
   </si>
   <si>
+    <t>UD Privilege</t>
+  </si>
+  <si>
     <t>EVENT_C</t>
   </si>
   <si>
+    <t>C Privilege</t>
+  </si>
+  <si>
     <t>EVENT_R</t>
   </si>
   <si>
+    <t>R Privilege</t>
+  </si>
+  <si>
     <t>EVENT_U</t>
   </si>
   <si>
+    <t>U Privilege</t>
+  </si>
+  <si>
     <t>EVENT_D</t>
   </si>
   <si>
+    <t>D Privilege</t>
+  </si>
+  <si>
     <t>EVENT_NONE</t>
-  </si>
-  <si>
-    <t>CRUD Privilege</t>
-  </si>
-  <si>
-    <t>CRD Privilege</t>
-  </si>
-  <si>
-    <t>CRU Privilege</t>
-  </si>
-  <si>
-    <t>CUD Privilege</t>
-  </si>
-  <si>
-    <t>RUD Privilege</t>
-  </si>
-  <si>
-    <t>CU Privilege</t>
-  </si>
-  <si>
-    <t>CR Privilege</t>
-  </si>
-  <si>
-    <t>CD Privilege</t>
-  </si>
-  <si>
-    <t>RU Privilege</t>
-  </si>
-  <si>
-    <t>RD Privilege</t>
-  </si>
-  <si>
-    <t>UD Privilege</t>
-  </si>
-  <si>
-    <t>C Privilege</t>
-  </si>
-  <si>
-    <t>R Privilege</t>
-  </si>
-  <si>
-    <t>U Privilege</t>
-  </si>
-  <si>
-    <t>D Privilege</t>
   </si>
   <si>
     <t>No Privilege</t>
@@ -1916,7 +1913,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4053,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4182,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4301,7 +4298,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4542,10 +4539,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4753,7 +4750,7 @@
         <v>274</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>280</v>
@@ -4770,7 +4767,7 @@
         <v>274</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>280</v>
@@ -4787,7 +4784,7 @@
         <v>274</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>280</v>
@@ -4804,7 +4801,7 @@
         <v>274</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>280</v>
@@ -4821,7 +4818,7 @@
         <v>274</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>280</v>
@@ -4838,7 +4835,7 @@
         <v>274</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>280</v>
@@ -4855,7 +4852,7 @@
         <v>274</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>280</v>
@@ -4872,7 +4869,7 @@
         <v>274</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>280</v>
@@ -4889,7 +4886,7 @@
         <v>274</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>280</v>
@@ -4906,7 +4903,7 @@
         <v>274</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>280</v>
@@ -4923,7 +4920,7 @@
         <v>274</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>280</v>
@@ -4940,7 +4937,7 @@
         <v>274</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>280</v>
@@ -4957,7 +4954,7 @@
         <v>274</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>280</v>
@@ -5110,7 +5107,7 @@
         <v>275</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>270</v>
@@ -5127,7 +5124,7 @@
         <v>275</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>270</v>
@@ -5144,7 +5141,7 @@
         <v>275</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>270</v>
@@ -5161,7 +5158,7 @@
         <v>275</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>270</v>
@@ -5178,7 +5175,7 @@
         <v>275</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>270</v>
@@ -5195,7 +5192,7 @@
         <v>275</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>270</v>
@@ -5212,7 +5209,7 @@
         <v>275</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>270</v>
@@ -5229,7 +5226,7 @@
         <v>275</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>270</v>
@@ -5246,7 +5243,7 @@
         <v>275</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>270</v>
@@ -5263,7 +5260,7 @@
         <v>275</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>270</v>
@@ -5280,7 +5277,7 @@
         <v>275</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>270</v>
@@ -5297,7 +5294,7 @@
         <v>275</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>270</v>
@@ -5314,7 +5311,7 @@
         <v>275</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>270</v>
@@ -5323,11 +5320,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="71">
         <v>42736</v>
       </c>
-      <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
         <v>276</v>
       </c>
@@ -5341,11 +5337,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="71">
         <v>42736</v>
       </c>
-      <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
         <v>276</v>
       </c>
@@ -5359,11 +5354,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="71">
         <v>42736</v>
       </c>
-      <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
         <v>276</v>
       </c>
@@ -5377,11 +5371,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="71">
         <v>42736</v>
       </c>
-      <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
         <v>276</v>
       </c>
@@ -5395,11 +5388,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="71">
         <v>42736</v>
       </c>
-      <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
         <v>276</v>
       </c>
@@ -5413,11 +5405,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="71">
         <v>42736</v>
       </c>
-      <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
         <v>276</v>
       </c>
@@ -5476,7 +5467,7 @@
         <v>276</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>281</v>
@@ -5494,7 +5485,7 @@
         <v>276</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>281</v>
@@ -5512,7 +5503,7 @@
         <v>276</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>281</v>
@@ -5530,7 +5521,7 @@
         <v>276</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>281</v>
@@ -5548,7 +5539,7 @@
         <v>276</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>281</v>
@@ -5566,7 +5557,7 @@
         <v>276</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>281</v>
@@ -5584,7 +5575,7 @@
         <v>276</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>281</v>
@@ -5602,7 +5593,7 @@
         <v>276</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>281</v>
@@ -5620,7 +5611,7 @@
         <v>276</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>281</v>
@@ -5638,7 +5629,7 @@
         <v>276</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>281</v>
@@ -5656,7 +5647,7 @@
         <v>276</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>281</v>
@@ -5674,7 +5665,7 @@
         <v>276</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>281</v>
@@ -5692,7 +5683,7 @@
         <v>276</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>281</v>
@@ -5701,15 +5692,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="71"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F66" xr:uid="{01C3DDBD-C69A-7340-BD3B-6233921EA065}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5724,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6654,8 +6637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6859,7 +6842,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9445,10 +9428,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9818,7 +9801,7 @@
         <v>285</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G10" s="28">
         <v>7</v>
@@ -9853,7 +9836,7 @@
         <v>287</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G11" s="28">
         <v>8</v>
@@ -9885,10 +9868,10 @@
         <v>274</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G12" s="28">
         <v>9</v>
@@ -9920,10 +9903,10 @@
         <v>274</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G13" s="28">
         <v>10</v>
@@ -9955,10 +9938,10 @@
         <v>274</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G14" s="28">
         <v>11</v>
@@ -9990,10 +9973,10 @@
         <v>274</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G15" s="28">
         <v>12</v>
@@ -10025,10 +10008,10 @@
         <v>274</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G16" s="28">
         <v>13</v>
@@ -10060,10 +10043,10 @@
         <v>274</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G17" s="28">
         <v>14</v>
@@ -10095,10 +10078,10 @@
         <v>274</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G18" s="28">
         <v>15</v>
@@ -10130,10 +10113,10 @@
         <v>274</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G19" s="28">
         <v>16</v>
@@ -10165,10 +10148,10 @@
         <v>274</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G20" s="28">
         <v>17</v>
@@ -10200,10 +10183,10 @@
         <v>274</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G21" s="28">
         <v>18</v>
@@ -10235,10 +10218,10 @@
         <v>274</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G22" s="28">
         <v>19</v>
@@ -10270,10 +10253,10 @@
         <v>274</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G23" s="28">
         <v>20</v>
@@ -10305,10 +10288,10 @@
         <v>274</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G24" s="28">
         <v>21</v>
@@ -10340,7 +10323,7 @@
         <v>274</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>316</v>
@@ -10598,7 +10581,7 @@
         <v>285</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G32" s="28">
         <v>7</v>
@@ -10633,7 +10616,7 @@
         <v>287</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G33" s="28">
         <v>8</v>
@@ -10665,10 +10648,10 @@
         <v>275</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G34" s="28">
         <v>9</v>
@@ -10700,10 +10683,10 @@
         <v>275</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G35" s="28">
         <v>10</v>
@@ -10735,10 +10718,10 @@
         <v>275</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G36" s="28">
         <v>11</v>
@@ -10770,10 +10753,10 @@
         <v>275</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G37" s="28">
         <v>12</v>
@@ -10805,10 +10788,10 @@
         <v>275</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G38" s="28">
         <v>13</v>
@@ -10840,10 +10823,10 @@
         <v>275</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G39" s="28">
         <v>14</v>
@@ -10875,10 +10858,10 @@
         <v>275</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G40" s="28">
         <v>15</v>
@@ -10910,10 +10893,10 @@
         <v>275</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G41" s="28">
         <v>16</v>
@@ -10945,10 +10928,10 @@
         <v>275</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G42" s="28">
         <v>17</v>
@@ -10980,10 +10963,10 @@
         <v>275</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G43" s="28">
         <v>18</v>
@@ -11015,10 +10998,10 @@
         <v>275</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G44" s="28">
         <v>19</v>
@@ -11050,10 +11033,10 @@
         <v>275</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G45" s="28">
         <v>20</v>
@@ -11085,10 +11068,10 @@
         <v>275</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G46" s="28">
         <v>21</v>
@@ -11120,7 +11103,7 @@
         <v>275</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>316</v>
@@ -11367,7 +11350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>42736</v>
       </c>
@@ -11378,7 +11361,7 @@
         <v>285</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G54" s="28">
         <v>7</v>
@@ -11389,6 +11372,12 @@
       <c r="I54" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
       <c r="P54" s="14" t="s">
         <v>116</v>
       </c>
@@ -11396,7 +11385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <v>42736</v>
       </c>
@@ -11407,7 +11396,7 @@
         <v>287</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G55" s="28">
         <v>8</v>
@@ -11418,6 +11407,12 @@
       <c r="I55" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
       <c r="P55" s="14" t="s">
         <v>116</v>
       </c>
@@ -11425,7 +11420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="13">
         <v>42736</v>
       </c>
@@ -11433,10 +11428,10 @@
         <v>276</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="G56" s="28">
         <v>9</v>
@@ -11447,6 +11442,12 @@
       <c r="I56" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
       <c r="P56" s="14" t="s">
         <v>116</v>
       </c>
@@ -11454,7 +11455,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="13">
         <v>42736</v>
       </c>
@@ -11462,10 +11463,10 @@
         <v>276</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G57" s="28">
         <v>10</v>
@@ -11476,6 +11477,12 @@
       <c r="I57" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
       <c r="P57" s="14" t="s">
         <v>116</v>
       </c>
@@ -11483,7 +11490,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="13">
         <v>42736</v>
       </c>
@@ -11491,10 +11498,10 @@
         <v>276</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G58" s="28">
         <v>11</v>
@@ -11505,6 +11512,12 @@
       <c r="I58" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
       <c r="P58" s="14" t="s">
         <v>116</v>
       </c>
@@ -11512,7 +11525,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="13">
         <v>42736</v>
       </c>
@@ -11520,10 +11533,10 @@
         <v>276</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G59" s="28">
         <v>12</v>
@@ -11534,6 +11547,12 @@
       <c r="I59" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
       <c r="P59" s="14" t="s">
         <v>116</v>
       </c>
@@ -11541,7 +11560,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="13">
         <v>42736</v>
       </c>
@@ -11549,10 +11568,10 @@
         <v>276</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G60" s="28">
         <v>13</v>
@@ -11563,6 +11582,12 @@
       <c r="I60" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
       <c r="P60" s="14" t="s">
         <v>116</v>
       </c>
@@ -11570,7 +11595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
         <v>42736</v>
       </c>
@@ -11578,10 +11603,10 @@
         <v>276</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G61" s="28">
         <v>14</v>
@@ -11592,6 +11617,12 @@
       <c r="I61" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
       <c r="P61" s="14" t="s">
         <v>116</v>
       </c>
@@ -11599,7 +11630,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="13">
         <v>42736</v>
       </c>
@@ -11607,10 +11638,10 @@
         <v>276</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G62" s="28">
         <v>15</v>
@@ -11621,6 +11652,12 @@
       <c r="I62" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
       <c r="P62" s="14" t="s">
         <v>116</v>
       </c>
@@ -11628,7 +11665,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="13">
         <v>42736</v>
       </c>
@@ -11636,10 +11673,10 @@
         <v>276</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G63" s="28">
         <v>16</v>
@@ -11650,6 +11687,12 @@
       <c r="I63" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
       <c r="P63" s="14" t="s">
         <v>116</v>
       </c>
@@ -11657,7 +11700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="13">
         <v>42736</v>
       </c>
@@ -11665,10 +11708,10 @@
         <v>276</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G64" s="28">
         <v>17</v>
@@ -11679,6 +11722,12 @@
       <c r="I64" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
       <c r="P64" s="14" t="s">
         <v>116</v>
       </c>
@@ -11686,7 +11735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="13">
         <v>42736</v>
       </c>
@@ -11694,10 +11743,10 @@
         <v>276</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G65" s="28">
         <v>18</v>
@@ -11708,6 +11757,12 @@
       <c r="I65" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
       <c r="P65" s="14" t="s">
         <v>116</v>
       </c>
@@ -11715,7 +11770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="13">
         <v>42736</v>
       </c>
@@ -11723,10 +11778,10 @@
         <v>276</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G66" s="28">
         <v>19</v>
@@ -11737,6 +11792,12 @@
       <c r="I66" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
       <c r="P66" s="14" t="s">
         <v>116</v>
       </c>
@@ -11744,7 +11805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13">
         <v>42736</v>
       </c>
@@ -11752,10 +11813,10 @@
         <v>276</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G67" s="28">
         <v>20</v>
@@ -11766,6 +11827,12 @@
       <c r="I67" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
       <c r="P67" s="14" t="s">
         <v>116</v>
       </c>
@@ -11773,7 +11840,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="13">
         <v>42736</v>
       </c>
@@ -11781,10 +11848,10 @@
         <v>276</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G68" s="28">
         <v>21</v>
@@ -11795,6 +11862,12 @@
       <c r="I68" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
       <c r="P68" s="14" t="s">
         <v>116</v>
       </c>
@@ -11802,7 +11875,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="13">
         <v>42736</v>
       </c>
@@ -11810,7 +11883,7 @@
         <v>276</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>316</v>
@@ -11824,6 +11897,12 @@
       <c r="I69" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
       <c r="P69" s="14" t="s">
         <v>116</v>
       </c>
@@ -11831,37 +11910,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="24"/>
-    </row>
-    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="24"/>
-    </row>
-    <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-    </row>
-    <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-    </row>
-    <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B48:B53 B26:B31 B4:B9" xr:uid="{00000000-0002-0000-0600-000001000000}">
-      <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
-    </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G69" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B9 B26:B31 B48:B53" xr:uid="{00000000-0002-0000-0600-000001000000}">
+      <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A69" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>42736</formula1>
@@ -11881,8 +11936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O184"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13760,7 +13815,7 @@
         <v>274</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>135</v>
@@ -13796,7 +13851,7 @@
         <v>274</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>135</v>
@@ -13832,7 +13887,7 @@
         <v>274</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>135</v>
@@ -13868,7 +13923,7 @@
         <v>274</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E54" s="28" t="s">
         <v>135</v>
@@ -13904,7 +13959,7 @@
         <v>274</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E55" s="28" t="s">
         <v>135</v>
@@ -13940,7 +13995,7 @@
         <v>274</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E56" s="28" t="s">
         <v>135</v>
@@ -13976,7 +14031,7 @@
         <v>274</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E57" s="28" t="s">
         <v>135</v>
@@ -14012,7 +14067,7 @@
         <v>274</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E58" s="28" t="s">
         <v>135</v>
@@ -14048,7 +14103,7 @@
         <v>274</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>135</v>
@@ -14084,7 +14139,7 @@
         <v>274</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E60" s="28" t="s">
         <v>135</v>
@@ -14120,7 +14175,7 @@
         <v>274</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>135</v>
@@ -14156,7 +14211,7 @@
         <v>274</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>135</v>
@@ -14192,7 +14247,7 @@
         <v>274</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>135</v>
@@ -14228,7 +14283,7 @@
         <v>274</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>135</v>
@@ -15927,7 +15982,7 @@
         <v>275</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>135</v>
@@ -15963,7 +16018,7 @@
         <v>275</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E111" s="28" t="s">
         <v>135</v>
@@ -15999,7 +16054,7 @@
         <v>275</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>135</v>
@@ -16035,7 +16090,7 @@
         <v>275</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E113" s="28" t="s">
         <v>135</v>
@@ -16071,7 +16126,7 @@
         <v>275</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E114" s="28" t="s">
         <v>135</v>
@@ -16107,7 +16162,7 @@
         <v>275</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E115" s="28" t="s">
         <v>135</v>
@@ -16143,7 +16198,7 @@
         <v>275</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E116" s="28" t="s">
         <v>135</v>
@@ -16179,7 +16234,7 @@
         <v>275</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>135</v>
@@ -16215,7 +16270,7 @@
         <v>275</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E118" s="28" t="s">
         <v>135</v>
@@ -16251,7 +16306,7 @@
         <v>275</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E119" s="28" t="s">
         <v>135</v>
@@ -16287,7 +16342,7 @@
         <v>275</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E120" s="28" t="s">
         <v>135</v>
@@ -16323,7 +16378,7 @@
         <v>275</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E121" s="28" t="s">
         <v>135</v>
@@ -16359,7 +16414,7 @@
         <v>275</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E122" s="28" t="s">
         <v>135</v>
@@ -16395,7 +16450,7 @@
         <v>275</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E123" s="28" t="s">
         <v>135</v>
@@ -18087,7 +18142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="13">
         <v>42736</v>
       </c>
@@ -18123,7 +18178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="13">
         <v>42736</v>
       </c>
@@ -18159,7 +18214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="13">
         <v>42736</v>
       </c>
@@ -18168,7 +18223,7 @@
         <v>276</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E171" s="28" t="s">
         <v>135</v>
@@ -18195,7 +18250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="13">
         <v>42736</v>
       </c>
@@ -18204,7 +18259,7 @@
         <v>276</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E172" s="28" t="s">
         <v>135</v>
@@ -18231,7 +18286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="13">
         <v>42736</v>
       </c>
@@ -18240,7 +18295,7 @@
         <v>276</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E173" s="28" t="s">
         <v>135</v>
@@ -18267,7 +18322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="13">
         <v>42736</v>
       </c>
@@ -18276,7 +18331,7 @@
         <v>276</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E174" s="28" t="s">
         <v>135</v>
@@ -18303,7 +18358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="13">
         <v>42736</v>
       </c>
@@ -18312,7 +18367,7 @@
         <v>276</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E175" s="28" t="s">
         <v>135</v>
@@ -18339,7 +18394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="13">
         <v>42736</v>
       </c>
@@ -18348,7 +18403,7 @@
         <v>276</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E176" s="28" t="s">
         <v>135</v>
@@ -18375,7 +18430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="13">
         <v>42736</v>
       </c>
@@ -18384,7 +18439,7 @@
         <v>276</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E177" s="28" t="s">
         <v>135</v>
@@ -18411,7 +18466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="13">
         <v>42736</v>
       </c>
@@ -18420,7 +18475,7 @@
         <v>276</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="E178" s="28" t="s">
         <v>135</v>
@@ -18447,7 +18502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="13">
         <v>42736</v>
       </c>
@@ -18456,7 +18511,7 @@
         <v>276</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E179" s="28" t="s">
         <v>135</v>
@@ -18483,7 +18538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="13">
         <v>42736</v>
       </c>
@@ -18492,7 +18547,7 @@
         <v>276</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E180" s="28" t="s">
         <v>135</v>
@@ -18519,7 +18574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="13">
         <v>42736</v>
       </c>
@@ -18528,7 +18583,7 @@
         <v>276</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E181" s="28" t="s">
         <v>135</v>
@@ -18555,7 +18610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="13">
         <v>42736</v>
       </c>
@@ -18564,7 +18619,7 @@
         <v>276</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="E182" s="28" t="s">
         <v>135</v>
@@ -18591,7 +18646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="13">
         <v>42736</v>
       </c>
@@ -18600,7 +18655,7 @@
         <v>276</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E183" s="28" t="s">
         <v>135</v>
@@ -18627,7 +18682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="13">
         <v>42736</v>
       </c>
@@ -18636,7 +18691,7 @@
         <v>276</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="E184" s="28" t="s">
         <v>135</v>
